--- a/medicine/Psychotrope/Gerard_Adriaan_Heineken/Gerard_Adriaan_Heineken.xlsx
+++ b/medicine/Psychotrope/Gerard_Adriaan_Heineken/Gerard_Adriaan_Heineken.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerard Adriaan Heineken (Amsterdam, 29 septembre 1841 — Amsterdam, 18 mars 1893) est le fondateur de la brasserie Heineken. En 1864 il reprend la brasserie De Hooiberg au "Nieuwezijds Voorburgwal" à Amsterdam, et il s'y met à brasser une nouvelle bière.
 L'accent mis par Gerard Adriaan sur la qualité lui valut rapidement d'être récompensé par des prix internationaux. Il a suivi la tendance allemande en passant de la fermentation haute à la fermentation basse et fut le premier brasseur au monde équipé d'un laboratoire pour le contrôle de qualité. Il a engagé un élève de Louis Pasteur comme chef du laboratoire. Ce scientifique, le docteur Hartog Elion (1853-1930), a isolé en 1886 une levure de qualité exceptionnelle, la levure Heineken A, encore utilisée de nos jours. 
